--- a/data/income_statement/2digits/total/31_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/31_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>31-Manufacture of furniture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>31-Manufacture of furniture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>8425487.01616</v>
@@ -956,76 +862,86 @@
         <v>9327878.7389</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>12331028.00772</v>
+        <v>12331859.16729</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>13838939.51826</v>
+        <v>13841140.15519</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>16086643.23845</v>
+        <v>16114326.98259</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>18815698.43715</v>
+        <v>18899914.69382</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>21153121.74602</v>
+        <v>21452056.24531</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>22844810.69427</v>
+        <v>22923428.74789</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>29863666.34999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>34770478.72730999</v>
+        <v>34931665.46696</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>40635433.61331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>41144434.77099</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>51092861.023</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>7227969.801879999</v>
+        <v>7227969.80188</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>7980228.02899</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>10577758.45399</v>
+        <v>10578580.92366</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11802672.76664</v>
+        <v>11804180.37304</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>13689593.31869</v>
+        <v>13716875.63588</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>16159170.70646</v>
+        <v>16238012.84864</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>18113640.09959</v>
+        <v>18373649.49637</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>19675319.33028</v>
+        <v>19747391.99521</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>25892827.90434</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>28955005.94433</v>
+        <v>29110723.3371</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>32737013.95747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>33128022.96234</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>40865073.968</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1102708.73465</v>
@@ -1037,34 +953,39 @@
         <v>1633706.87483</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1887881.55716</v>
+        <v>1888436.21062</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2228815.64303</v>
+        <v>2228931.16528</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2441954.11904</v>
+        <v>2446249.55289</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2798514.54444</v>
+        <v>2834333.68878</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2900204.13926</v>
+        <v>2906400.07643</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>3570556.72063</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5253517.58364</v>
+        <v>5258489.25434</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7344171.10574</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7458339.24827</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9582017.626</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>94808.47963</v>
@@ -1073,37 +994,42 @@
         <v>93021.80125</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>119562.6789</v>
+        <v>119571.3688</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>148385.19446</v>
+        <v>148523.57153</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>168234.27673</v>
+        <v>168520.18143</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>214573.61165</v>
+        <v>215652.29229</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>240967.10199</v>
+        <v>244073.06016</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>269287.22473</v>
+        <v>269636.67625</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>400281.72502</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>561955.1993400001</v>
+        <v>562452.87552</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>554248.5501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>558072.56038</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>645769.429</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>222392.41519</v>
@@ -1118,34 +1044,39 @@
         <v>489197.966</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>507357.68005</v>
+        <v>507403.90238</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>561679.3557999999</v>
+        <v>564681.4375499999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>656974.2037099999</v>
+        <v>690527.1196000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>975610.10519</v>
+        <v>976330.2930999999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>1374352.2194</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1555154.22159</v>
+        <v>1555766.69973</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1956984.19828</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1961748.98654</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2825788.632</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>81712.54941999998</v>
+        <v>81712.54942</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>90750.12921000001</v>
@@ -1157,31 +1088,36 @@
         <v>136062.48476</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>131519.3033</v>
+        <v>131563.78026</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>174102.13359</v>
+        <v>177093.39839</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>182599.56554</v>
+        <v>188430.5811</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>240803.23467</v>
+        <v>241283.28067</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>300760.04752</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>352551.61328</v>
+        <v>352958.03822</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>476108.95901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>480567.0090200001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>610566.093</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>120899.8878</v>
@@ -1199,28 +1135,33 @@
         <v>348979.32676</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>369457.45438</v>
+        <v>369459.20702</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>434073.12168</v>
+        <v>461030.50242</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>676930.9795199999</v>
+        <v>677154.86454</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1025189.94369</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1116339.21444</v>
+        <v>1116544.98764</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1400060.92537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1400329.01449</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2122698.556</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>19779.97797</v>
@@ -1235,70 +1176,80 @@
         <v>27729.25486</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>26859.04999</v>
+        <v>26860.79536</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>18119.76783</v>
+        <v>18128.83214</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>40301.51649</v>
+        <v>41066.03608</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>57875.891</v>
+        <v>57892.14789</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>48402.22819</v>
+        <v>48402.22818999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>86263.39387</v>
+        <v>86263.67386999998</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>80814.31390000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>80852.96303</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>92523.98299999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>8203094.600969999</v>
+        <v>8203094.60097</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>9079058.839230001</v>
+        <v>9079058.839229999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>11999120.2715</v>
+        <v>11999951.43107</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>13349741.55226</v>
+        <v>13351942.18919</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>15579285.5584</v>
+        <v>15606923.08021</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>18254019.08135</v>
+        <v>18335233.25627</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>20496147.54231</v>
+        <v>20761529.12571</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>21869200.58908</v>
+        <v>21947098.45479</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>28489314.13059</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>33215324.50572</v>
+        <v>33375898.76723</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>38678449.41503</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39182685.78444999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>48267072.391</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>6482781.70504</v>
@@ -1307,76 +1258,86 @@
         <v>7142438.71448</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>9516854.53987</v>
+        <v>9517622.381650001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>10737086.50677</v>
+        <v>10738997.51741</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>12395833.81066</v>
+        <v>12420179.43833</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>14600348.68282</v>
+        <v>14669810.56573</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>16279994.70003</v>
+        <v>16493423.41982</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>17372371.84536</v>
+        <v>17424669.64553</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>22839446.59521</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>26755805.60135</v>
+        <v>26904305.41836</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>30982297.19511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>31417388.47235</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>38477808.131</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>5082744.4649</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5632784.876519999</v>
+        <v>5632784.87652</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>7468837.664729999</v>
+        <v>7468874.410509999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>8482981.994829999</v>
+        <v>8483729.910490001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>9748651.25532</v>
+        <v>9766693.301340001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>11287234.51385</v>
+        <v>11349759.54956</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>12639899.55397</v>
+        <v>12822160.50887</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>13567233.99478</v>
+        <v>13608320.08198</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>17977901.46628</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>20866411.27995</v>
+        <v>20915393.1286</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>23954267.26774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>24204973.11037</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>29668593.169</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1248792.68965</v>
@@ -1385,37 +1346,42 @@
         <v>1347778.95912</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1818082.78659</v>
+        <v>1818813.88259</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1965542.77717</v>
+        <v>1966204.03387</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2240404.53074</v>
+        <v>2246561.09261</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2570414.75536</v>
+        <v>2575606.21041</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2976694.75601</v>
+        <v>3004761.50367</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3051700.37416</v>
+        <v>3062924.22407</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>3894403.71179</v>
+        <v>3894403.711790001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4653799.41275</v>
+        <v>4745885.10771</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5679529.328950001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5827481.293610001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7264606.816</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>133100.08267</v>
@@ -1427,34 +1393,39 @@
         <v>192861.19489</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>257575.34636</v>
+        <v>258077.18464</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>298392.7331599999</v>
+        <v>298539.75294</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>560579.24962</v>
+        <v>562324.64177</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>532293.3899300001</v>
+        <v>535384.7423500001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>598940.3900599999</v>
+        <v>598944.1471899999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>745834.02619</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>958142.2688</v>
+        <v>965537.2314800001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>950490.8381300002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>986769.3574300001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>958754.461</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>18144.46782</v>
@@ -1475,25 +1446,30 @@
         <v>182120.16399</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>131107.00012</v>
+        <v>131116.66493</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>154497.08636</v>
+        <v>154481.19229</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>221307.39095</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>277452.63985</v>
+        <v>277489.95057</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>398009.7602899999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>398164.71094</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>585853.6850000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1720312.89593</v>
@@ -1502,37 +1478,42 @@
         <v>1936620.12475</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2482265.73163</v>
+        <v>2482329.04942</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2612655.04549</v>
+        <v>2612944.67178</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3183451.74774</v>
+        <v>3186743.64188</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3653670.39853</v>
+        <v>3665422.69054</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4216152.84228</v>
+        <v>4268105.70589</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4496828.743720001</v>
+        <v>4522428.80926</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>5649867.53538</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6459518.90437</v>
+        <v>6471593.34887</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7696152.21992</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7765297.312100001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9789264.26</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1126625.55765</v>
@@ -1541,40 +1522,45 @@
         <v>1368039.23549</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1749887.23274</v>
+        <v>1749916.53984</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1896044.63115</v>
+        <v>1896310.66524</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2229277.09515</v>
+        <v>2231647.06049</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2631396.98021</v>
+        <v>2639967.3016</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2919988.355849999</v>
+        <v>2960850.05181</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3355110.95458</v>
+        <v>3373889.73157</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3838787.640399999</v>
+        <v>3838787.6404</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4542058.53425</v>
+        <v>4557323.61998</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5145233.30666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>5201669.89955</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5699315.799</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5527.31773</v>
+        <v>5527.317730000001</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>6991.114799999999</v>
@@ -1583,16 +1569,16 @@
         <v>10652.93201</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>8789.949470000001</v>
+        <v>8789.94947</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>15727.12757</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>17690.0196</v>
+        <v>17723.33376</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>25214.53506</v>
+        <v>25434.36866</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>34515.40304</v>
@@ -1601,16 +1587,21 @@
         <v>36944.62349</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>64839.44637999999</v>
+        <v>64855.41292</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>75738.05621</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>75788.57923999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>79746.644</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>602196.8367699999</v>
@@ -1619,37 +1610,42 @@
         <v>746678.1693</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>951261.28318</v>
+        <v>951261.2831799999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>973408.00844</v>
+        <v>973428.2719900002</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1117913.23124</v>
+        <v>1118739.83071</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1318159.62336</v>
+        <v>1322491.82968</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1484692.54829</v>
+        <v>1503146.62647</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1758360.63696</v>
+        <v>1769448.8932</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2057421.65864</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2431360.2763</v>
+        <v>2434217.96171</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2703657.13375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2720016.96544</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2931458</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>518901.40315</v>
@@ -1658,76 +1654,86 @@
         <v>614369.9513900001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>787973.0175500001</v>
+        <v>788002.32465</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>913846.67324</v>
+        <v>914092.4437800001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1095636.73634</v>
+        <v>1097180.10221</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1295547.33725</v>
+        <v>1299752.13816</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1410081.2725</v>
+        <v>1432269.05668</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1562234.91458</v>
+        <v>1569925.43533</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1744421.35827</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2045858.81157</v>
+        <v>2058250.24535</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2365838.1167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2405864.35487</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2688111.155</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>593687.3382800001</v>
+        <v>593687.33828</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>568580.88926</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>732378.4988900002</v>
+        <v>732412.50958</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>716610.41434</v>
+        <v>716634.00654</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>954174.6525900002</v>
+        <v>955096.5813899999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1022273.41832</v>
+        <v>1025455.38894</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1296164.48643</v>
+        <v>1307255.65408</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1141717.78914</v>
+        <v>1148539.07769</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1811079.89498</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1917460.37012</v>
+        <v>1914269.72889</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2550918.91326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2563627.41255</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4089948.461</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>144580.68105</v>
@@ -1739,34 +1745,39 @@
         <v>228982.97433</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>241246.66911</v>
+        <v>241285.41427</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>336829.35823</v>
+        <v>336908.84349</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>541932.48072</v>
+        <v>544228.58031</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>701494.8387900001</v>
+        <v>710933.319</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>720590.76243</v>
+        <v>722862.74125</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>950951.96751</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2297309.88055</v>
+        <v>2298968.0522</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1667454.97682</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1671394.29591</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2347034.207</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>86.77506</v>
@@ -1799,13 +1810,18 @@
         <v>4928.539769999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>4415.82934</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>4415.829339999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>1695.243</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>856.15076</v>
@@ -1829,7 +1845,7 @@
         <v>3610.97167</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2288.4876</v>
+        <v>2289.51081</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>15689.978</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>4905.239769999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>772.992</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>14997.29472</v>
@@ -1856,34 +1877,39 @@
         <v>19933.27482</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>27490.93311</v>
+        <v>27491.00939</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>28649.19307</v>
+        <v>28676.93262</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>32604.45531</v>
+        <v>32636.29839</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>40247.37756</v>
+        <v>40318.1794</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>40068.67307</v>
+        <v>40724.35057</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>77875.08714</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>145019.74632</v>
+        <v>145148.4983</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>153806.71344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>154137.33484</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>169360.945</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>866.1050300000001</v>
@@ -1904,10 +1930,10 @@
         <v>1342.64124</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2176.59221</v>
+        <v>2176.84031</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2870.02211</v>
+        <v>2883.24334</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>4082.32492</v>
@@ -1916,13 +1942,18 @@
         <v>10782.64756</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>14582.75355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>14557.16823</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>5680.271</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4966.01028</v>
@@ -1934,7 +1965,7 @@
         <v>2099.95769</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>8282.072380000001</v>
+        <v>8282.07238</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>5142.81993</v>
@@ -1946,7 +1977,7 @@
         <v>6097.90789</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4975.46668</v>
+        <v>5007.848099999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>7182.55324</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>28075.66877</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>14465.372</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>516.01993</v>
+        <v>516.0199299999999</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>1765.26931</v>
@@ -1976,34 +2012,39 @@
         <v>6505.996099999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>6194.7927</v>
+        <v>6194.792699999999</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>2439.15921</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3008.67858</v>
+        <v>3009.37678</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3944.7638</v>
+        <v>3972.78628</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>6192.14249</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>6481.204569999998</v>
+        <v>6481.48067</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>30129.80606</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>49463.359</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>81834.89022999999</v>
+        <v>81834.89023</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>102986.46792</v>
@@ -2012,34 +2053,39 @@
         <v>146717.60189</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>116327.54619</v>
+        <v>116327.64914</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>193497.69184</v>
+        <v>193532.91213</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>218793.1358</v>
+        <v>220698.94793</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>441220.71233</v>
+        <v>448361.73863</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>436669.49808</v>
+        <v>437684.10339</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>561629.20062</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1759383.70267</v>
+        <v>1759608.68802</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>904351.4106200001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>905715.63127</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1746894.307</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>5015.85232</v>
@@ -2048,16 +2094,16 @@
         <v>3172.05395</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>643.7259499999999</v>
+        <v>643.7259500000001</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>357.4102099999999</v>
+        <v>357.41021</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>19901.72518</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>87668.67559</v>
+        <v>87668.67558999998</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>108789.23186</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>282225.3992</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>121150.358</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>171.97934</v>
@@ -2105,19 +2156,24 @@
         <v>53.56930999999999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>712.70843</v>
+        <v>712.7084299999999</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>968.0561599999999</v>
+        <v>968.05616</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>303.12912</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>318.4657800000001</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>544.789</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>35269.60338</v>
@@ -2126,37 +2182,42 @@
         <v>39481.58944</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>52536.05669</v>
+        <v>52536.05668999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>72961.38528999999</v>
+        <v>72999.95122</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>76790.75881999999</v>
+        <v>76807.28424000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>95530.08787999999</v>
+        <v>95888.53226000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>91647.67239000001</v>
+        <v>93873.37815999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>117634.15863</v>
+        <v>118161.2063</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>141018.51332</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>174262.97742</v>
+        <v>175567.13564</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>244659.02695</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>246913.75265</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>237006.571</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>132332.50273</v>
@@ -2168,34 +2229,39 @@
         <v>202436.9853</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>137024.17423</v>
+        <v>137025.40761</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>305672.60523</v>
+        <v>305695.03377</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>368021.5028900001</v>
+        <v>370642.3548</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>670204.73662</v>
+        <v>678935.45678</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>687101.0853399999</v>
+        <v>688027.9492499999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>886579.7641400001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2110761.7986</v>
+        <v>2110858.48063</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1373515.54001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1375133.06164</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1953828.566</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>8047.35272</v>
@@ -2213,28 +2279,33 @@
         <v>5732.43219</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6181.754279999999</v>
+        <v>6186.411349999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>17902.78001</v>
+        <v>17930.02197</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>23568.37867</v>
+        <v>23671.24949</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>27448.97823</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>48677.56786</v>
+        <v>48718.45926</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>41286.75324</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>41308.69723000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>47277.552</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>32982.30733</v>
@@ -2249,7 +2320,7 @@
         <v>24687.16967</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>48378.13337999999</v>
+        <v>48378.13338</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>26375.81095</v>
@@ -2258,25 +2329,30 @@
         <v>56938.23312</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>85942.33112</v>
+        <v>86158.04332</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>81091.34252999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>99712.42950999999</v>
+        <v>99712.42951</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>152537.10313</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>152563.59652</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>187931.288</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>281.6782699999999</v>
+        <v>281.67827</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>117.61951</v>
@@ -2294,7 +2370,7 @@
         <v>365.82535</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>935.5072299999999</v>
+        <v>958.84324</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>821.46768</v>
@@ -2303,16 +2379,21 @@
         <v>583.84555</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>7681.02829</v>
+        <v>7681.028289999999</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>1305.9295</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1658.385</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>79430.38678</v>
@@ -2324,34 +2405,39 @@
         <v>169455.5762</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>95403.20532000001</v>
+        <v>95404.43822</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>209018.48257</v>
+        <v>209040.72579</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>222475.39672</v>
+        <v>224966.50445</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>473332.22882</v>
+        <v>481079.15255</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>442071.2504399999</v>
+        <v>442497.24492</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>607117.22711</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1736177.99522</v>
+        <v>1736194.23023</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>865763.5995800002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>867225.1534300001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1562049.364</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4152.06969</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>275903.64052</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>118459.78</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>125.87187</v>
@@ -2420,55 +2511,65 @@
         <v>39.01646</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>5.712120000000001</v>
+        <v>5.71212</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>12.44614</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>7312.83607</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>9588.976879999998</v>
+        <v>9588.97688</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>11186.27585</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>10066.05523</v>
+        <v>10066.05571</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>10131.21669</v>
+        <v>10131.40201</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>16774.03181</v>
+        <v>16899.11892</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>15411.48682</v>
+        <v>16344.70528</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>30210.98226</v>
+        <v>30393.26867</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>31242.33287999999</v>
+        <v>31242.33288</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>37518.38331</v>
+        <v>37557.93893</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>36718.51394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>36813.5983</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>36451.495</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>179581.20476</v>
@@ -2480,34 +2581,39 @@
         <v>215302.8702</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>246727.71339</v>
+        <v>246756.04816</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>300411.08893</v>
+        <v>300653.6797</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>352572.14736</v>
+        <v>354131.30689</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>471319.45994</v>
+        <v>483038.84582</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>543898.4765</v>
+        <v>546058.9454099999</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>689726.34311</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1073434.75166</v>
+        <v>1074505.34935</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1050324.58606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1056732.15725</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1093102.611</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>151236.50561</v>
@@ -2519,34 +2625,39 @@
         <v>187134.32341</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>223996.88045</v>
+        <v>224025.21522</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>253279.7981</v>
+        <v>253522.38887</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>313481.34663</v>
+        <v>315040.50616</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>409549.19724</v>
+        <v>420833.67253</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>488171.38885</v>
+        <v>489951.82895</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>625710.04253</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>975967.50644</v>
+        <v>976813.7750199999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>926578.13879</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>932051.62017</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>871144.813</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>28344.69915</v>
@@ -2567,25 +2678,30 @@
         <v>39090.80073</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>61770.26269999999</v>
+        <v>62205.17329</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>55727.08765</v>
+        <v>56107.11646</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>64016.30058</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>97467.24522</v>
+        <v>97691.57433</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>123746.44727</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>124680.53708</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>221957.798</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>426354.31184</v>
@@ -2594,37 +2710,42 @@
         <v>448252.41172</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>543621.6177199999</v>
+        <v>543655.6284100001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>574105.1958299999</v>
+        <v>574137.9650399999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>684920.31666</v>
+        <v>685656.7114100001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>843612.2487899999</v>
+        <v>844910.30756</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>856135.1286599999</v>
+        <v>856214.67048</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>631308.98973</v>
+        <v>637314.92428</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1185725.75524</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1030573.70041</v>
+        <v>1027873.95111</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1794533.76401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1803156.48957</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3390051.491</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>50923.83058</v>
@@ -2639,31 +2760,36 @@
         <v>114510.50926</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>116986.26904</v>
+        <v>117046.62043</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>133086.74392</v>
+        <v>133394.97584</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>129716.80873</v>
+        <v>131606.8262</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>201248.28478</v>
+        <v>201756.6816</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>260814.26548</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>239674.47965</v>
+        <v>240256.04192</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>255806.91712</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>258302.46647</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>409405.112</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>731.63487</v>
@@ -2675,7 +2801,7 @@
         <v>827.60821</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>834.5819099999999</v>
+        <v>834.58191</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>1038.77761</v>
@@ -2696,52 +2822,62 @@
         <v>3028.54895</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2979.9971</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3024.50831</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6196.804</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>50192.19570999999</v>
+        <v>50192.19571</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>45333.25356</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>93119.10371000001</v>
+        <v>93119.10371</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>113675.92735</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>115947.49143</v>
+        <v>116007.84282</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>131779.07306</v>
+        <v>132087.30498</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>129049.54143</v>
+        <v>130939.5589</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>200004.82821</v>
+        <v>200513.22503</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>252648.97767</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>236645.9307</v>
+        <v>237227.49297</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>252826.92002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>255277.95816</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>403208.308</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>64916.26602</v>
@@ -2750,37 +2886,42 @@
         <v>45598.18919</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>286949.19183</v>
+        <v>286972.44346</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>81870.53525</v>
+        <v>81915.43731000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>90335.16065999999</v>
+        <v>90391.64104999998</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>198828.26587</v>
+        <v>198943.11335</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>107398.10647</v>
+        <v>108611.03669</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>387210.06486</v>
+        <v>388203.3233</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>177737.62324</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>371003.03885</v>
+        <v>372560.70944</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>217145.91286</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>222030.57958</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>248440.453</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4776.35781</v>
@@ -2801,7 +2942,7 @@
         <v>14489.8315</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>11245.1397</v>
+        <v>11252.30238</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>13093.19213</v>
@@ -2813,13 +2954,18 @@
         <v>15957.05748</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>19355.74185</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>19576.93531</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>37294.283</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>5356.44544</v>
@@ -2834,31 +2980,36 @@
         <v>3111.51857</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>7639.71443</v>
+        <v>7640.34897</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3980.36517</v>
+        <v>3979.94402</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9797.16901</v>
+        <v>9799.28507</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>40572.39434000001</v>
+        <v>40585.46776</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>6353.86775</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9130.36959</v>
+        <v>9163.563749999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10815.09668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>10823.25615</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7837.953</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>54783.46277</v>
@@ -2867,37 +3018,42 @@
         <v>38643.9214</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>267420.1529099999</v>
+        <v>267443.40454</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>72879.16152000001</v>
+        <v>72924.06358000002</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>74899.12687000001</v>
+        <v>74954.97272000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>180358.0692</v>
+        <v>180473.33783</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>86355.79776</v>
+        <v>87559.44924000002</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>333544.47839</v>
+        <v>334524.66341</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>158692.14393</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>345915.61178</v>
+        <v>347440.08821</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>186975.07433</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>191630.38812</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>203308.217</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>412361.8764</v>
@@ -2906,37 +3062,42 @@
         <v>448754.04317</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>350619.13781</v>
+        <v>350629.89687</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>606745.16984</v>
+        <v>606733.0369900001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>711571.4250400001</v>
+        <v>712311.6907899999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>777870.72684</v>
+        <v>779362.17005</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>878453.8309200001</v>
+        <v>879210.45999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>445347.20965</v>
+        <v>450868.28258</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1268802.39748</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>899245.14121</v>
+        <v>895569.28359</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1833194.76827</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1839428.37646</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3551016.15</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>92877.02219999999</v>
@@ -2948,70 +3109,78 @@
         <v>126518.55574</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>133325.29235</v>
+        <v>133328.1431</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>143915.34996</v>
+        <v>144015.70668</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>157112.52469</v>
+        <v>157447.45798</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>185625.65692</v>
+        <v>186414.13885</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>180284.1622</v>
+        <v>180296.20985</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>247783.7653</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>277236.93922</v>
+        <v>277710.61331</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>406507.0012299999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>411256.58626</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>652900.292</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>319484.8542000001</v>
+        <v>319484.8542</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>350210.53649</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>224100.58207</v>
+        <v>224111.34113</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>473419.8774899999</v>
+        <v>473404.89389</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>567656.0750800001</v>
+        <v>568295.98411</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>620758.2021500001</v>
+        <v>621914.7120699999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>692828.174</v>
+        <v>692796.3211400001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>265063.04745</v>
+        <v>270572.07273</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1021018.63218</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>622008.20199</v>
+        <v>617858.67028</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1426687.76704</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1428171.7902</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2898115.858</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>5680</v>
@@ -3038,34 +3210,37 @@
         <v>5837</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>6051</v>
+        <v>6052</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>6020</v>
+        <v>6025</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>6002</v>
+        <v>6015</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>6140</v>
+        <v>6158</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6206</v>
+        <v>6266</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6410</v>
+        <v>6455</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>6800</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6469</v>
+        <v>7136</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6623</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7581</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>8180</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>